--- a/data-raw/fluxes/pasmc_05/pasmc_05_c_2020-06-06.xlsx
+++ b/data-raw/fluxes/pasmc_05/pasmc_05_c_2020-06-06.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Dropbox (Partners HealthCare)/Copeland.2021.hypoxia.flux/inst/extdata/fluxes/pasmc_05/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/will/Dropbox (Partners HealthCare)/Copeland.2021.hypoxia.flux/data-raw/fluxes/pasmc_05/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BC2802-5333-734B-9205-70490D450DC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED558E45-3A84-1F44-8C67-866519A52A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1460" windowWidth="45500" windowHeight="25720" activeTab="5" xr2:uid="{1D4C4C2F-7A99-D141-A4DB-2424DC3A3300}"/>
+    <workbookView xWindow="2820" yWindow="1460" windowWidth="45500" windowHeight="25720" xr2:uid="{1D4C4C2F-7A99-D141-A4DB-2424DC3A3300}"/>
   </bookViews>
   <sheets>
     <sheet name="evap" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -62,9 +62,6 @@
     <t>c</t>
   </si>
   <si>
-    <t>treatment</t>
-  </si>
-  <si>
     <t>21%</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
   </si>
   <si>
     <t>oxygen</t>
-  </si>
-  <si>
-    <t>none</t>
   </si>
   <si>
     <t>2 Asparagine</t>
@@ -566,196 +560,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0473DBDA-133C-8E46-809A-4027CD08C62D}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2">
+        <v>-24</v>
+      </c>
+      <c r="C2">
+        <v>57.709000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>69.753</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>69.527000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>69.388999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>69.188000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>69.025999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B8">
+        <v>-24</v>
+      </c>
+      <c r="C8">
+        <v>58.908999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>70.872</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>-24</v>
-      </c>
-      <c r="D2">
-        <v>57.709000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="C10">
+        <v>70.747</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>69.753</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B11">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>70.671000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>69.527000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B12">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>70.576999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>24</v>
-      </c>
-      <c r="D5">
-        <v>69.388999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>36</v>
-      </c>
-      <c r="D6">
-        <v>69.188000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
+      <c r="B13">
         <v>48</v>
       </c>
-      <c r="D7">
-        <v>69.025999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>-24</v>
-      </c>
-      <c r="D8">
-        <v>58.908999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>70.872</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>70.747</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>24</v>
-      </c>
-      <c r="D11">
-        <v>70.671000000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>36</v>
-      </c>
-      <c r="D12">
-        <v>70.576999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C13">
-        <v>48</v>
-      </c>
-      <c r="D13">
         <v>70.483000000000004</v>
       </c>
     </row>
@@ -776,7 +731,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1415,7 +1370,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2209,7 +2164,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3003,7 +2958,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3789,7 +3744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AA4D88-3C9B-2E41-8731-0F48B38CC1B4}">
   <dimension ref="A1:AV63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -3797,7 +3752,7 @@
   <sheetData>
     <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3806,139 +3761,139 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>23</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>24</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>27</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>28</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>29</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>30</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>31</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>32</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>39</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>40</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>41</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>42</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>43</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>44</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>45</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>46</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>47</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>48</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>49</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>50</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>51</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>52</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>53</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AU1" t="s">
         <v>54</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AV1" t="s">
         <v>55</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.2">
@@ -12691,7 +12646,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -12700,10 +12655,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
